--- a/Data/EC/NIT-8002334456.xlsx
+++ b/Data/EC/NIT-8002334456.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A201D7AE-DCF7-4113-B1E2-62003E088365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EFE674-C039-47BD-A34F-CF5662B636FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77165C2C-D7C6-4892-98D8-B4A51B5AFC6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5A01DBA-0D72-40F3-BBD5-8567E530175E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,64 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22853823</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA GUISADO DE ROMERO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>22854431</t>
   </si>
   <si>
     <t>MILDRETH DEL CARMEN MEZA HENAO</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>22853823</t>
-  </si>
-  <si>
-    <t>MARIA EUGENIA GUISADO DE ROMERO</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39113C17-9581-0B05-F08B-7F3172CE9AC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC6F39D-07BC-C019-0EEA-ABE4633FC949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76623462-3600-465F-9DCA-7EBB0FEDABF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE224F-02BF-4F84-8EC8-B379C0EFEFB2}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>33942</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1079,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1125,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1263,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1286,13 +1286,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1355,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1384,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1401,13 +1401,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1447,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1470,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1493,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1516,13 +1516,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1539,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1562,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1585,16 +1585,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" s="24">
-        <v>33942</v>
+        <v>35112</v>
       </c>
       <c r="G39" s="24">
         <v>877803</v>
